--- a/Maestros.xlsx
+++ b/Maestros.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="indices"/>
-    <sheet r:id="rId2" sheetId="2" name="servicios"/>
+    <sheet name="indices" sheetId="1" r:id="rId1"/>
+    <sheet name="servicios" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">indices!$A$1:$B$23</definedName>
   </definedNames>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="181">
   <si>
     <t>Servicio</t>
   </si>
@@ -558,13 +558,15 @@
   </si>
   <si>
     <t>Capacitacion</t>
+  </si>
+  <si>
+    <t>Todos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -595,22 +597,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -621,10 +619,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -662,71 +660,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -754,7 +752,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -777,11 +775,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -790,13 +788,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -806,7 +804,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -815,7 +813,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -824,7 +822,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -832,10 +830,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -906,15 +904,15 @@
   </sheetPr>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="32.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="30.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="32.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>154</v>
       </c>
@@ -922,7 +920,7 @@
         <v>155</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>156</v>
       </c>
@@ -930,7 +928,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>158</v>
       </c>
@@ -938,7 +936,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>159</v>
       </c>
@@ -946,7 +944,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>160</v>
       </c>
@@ -954,7 +952,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>161</v>
       </c>
@@ -962,7 +960,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>162</v>
       </c>
@@ -970,7 +968,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>163</v>
       </c>
@@ -978,7 +976,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>164</v>
       </c>
@@ -986,7 +984,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>165</v>
       </c>
@@ -994,7 +992,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>166</v>
       </c>
@@ -1002,7 +1000,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>167</v>
       </c>
@@ -1010,7 +1008,7 @@
         <v>168</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>169</v>
       </c>
@@ -1018,7 +1016,7 @@
         <v>168</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>170</v>
       </c>
@@ -1026,7 +1024,7 @@
         <v>168</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>171</v>
       </c>
@@ -1034,7 +1032,7 @@
         <v>168</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>172</v>
       </c>
@@ -1042,7 +1040,7 @@
         <v>168</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>173</v>
       </c>
@@ -1050,7 +1048,7 @@
         <v>168</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>174</v>
       </c>
@@ -1058,7 +1056,7 @@
         <v>168</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>175</v>
       </c>
@@ -1066,7 +1064,7 @@
         <v>168</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>176</v>
       </c>
@@ -1074,7 +1072,7 @@
         <v>168</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>177</v>
       </c>
@@ -1082,7 +1080,7 @@
         <v>168</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>178</v>
       </c>
@@ -1090,7 +1088,7 @@
         <v>168</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>179</v>
       </c>
@@ -1108,17 +1106,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B128"/>
+  <dimension ref="A1:B129"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B130" sqref="B130"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="94.57642857142856" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="94.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>43</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>44</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>45</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>46</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>47</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>48</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>49</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>50</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>51</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>52</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>54</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>55</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>57</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>58</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>59</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>60</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>61</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>63</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>64</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>65</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>67</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>68</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>69</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row r="52" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>71</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row r="53" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>72</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row r="54" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>73</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row r="55" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>74</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    <row r="56" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>75</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+    <row r="57" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>76</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+    <row r="58" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>77</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+    <row r="59" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>78</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+    <row r="60" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>79</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+    <row r="61" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>80</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+    <row r="62" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>81</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>82</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+    <row r="63" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>83</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>84</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+    <row r="64" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>85</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+    <row r="65" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>86</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+    <row r="66" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>87</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+    <row r="67" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>88</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+    <row r="68" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>89</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+    <row r="69" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>90</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+    <row r="70" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>91</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+    <row r="71" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>92</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+    <row r="72" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>93</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+    <row r="73" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>94</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+    <row r="74" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>95</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+    <row r="75" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>96</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+    <row r="76" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>97</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+    <row r="77" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>98</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+    <row r="78" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>99</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+    <row r="79" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>100</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+    <row r="80" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>101</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+    <row r="81" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>102</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+    <row r="82" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>103</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+    <row r="83" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>104</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+    <row r="84" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>105</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+    <row r="85" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>106</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+    <row r="86" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>107</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+    <row r="87" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>108</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+    <row r="88" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>109</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>84</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+    <row r="89" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>110</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+    <row r="90" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>111</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>84</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+    <row r="91" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>112</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
+    <row r="92" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>113</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
+    <row r="93" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>114</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
+    <row r="94" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>115</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
+    <row r="95" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>116</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>117</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
+    <row r="96" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>118</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
+    <row r="97" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>119</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
+    <row r="98" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>120</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
+    <row r="99" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>121</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
+    <row r="100" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>122</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
+    <row r="101" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>123</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
+    <row r="102" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>124</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
+    <row r="103" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>125</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
+    <row r="104" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>126</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
+    <row r="105" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>127</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>128</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
+    <row r="106" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>129</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>117</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
+    <row r="107" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>130</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
+    <row r="108" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>131</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
+    <row r="109" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>132</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
+    <row r="110" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>133</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
+    <row r="111" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>134</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
+    <row r="112" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>135</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
+    <row r="113" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>136</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>56</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
+    <row r="114" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>137</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>84</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
+    <row r="115" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>138</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>82</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
+    <row r="116" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>139</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>117</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
+    <row r="117" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>140</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
+    <row r="118" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>141</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>142</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
+    <row r="119" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>143</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>144</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
+    <row r="120" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>145</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
+    <row r="121" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>146</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
+    <row r="122" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>147</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
+    <row r="123" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>148</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
+    <row r="124" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>149</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
+    <row r="125" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>150</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
+    <row r="126" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>151</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
+    <row r="127" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>152</v>
       </c>
@@ -2134,12 +2134,20 @@
         <v>82</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
+    <row r="128" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/Maestros.xlsx
+++ b/Maestros.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="indices" sheetId="1" r:id="rId1"/>
-    <sheet name="servicios" sheetId="2" r:id="rId2"/>
+    <sheet r:id="rId1" sheetId="1" name="indices"/>
+    <sheet r:id="rId2" sheetId="2" name="servicios"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">indices!$A$1:$B$23</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -482,6 +482,9 @@
     <t>Unidad Administradora de los Tribunales Tributarios y Aduaneros</t>
   </si>
   <si>
+    <t>Todos</t>
+  </si>
+  <si>
     <t>Indice</t>
   </si>
   <si>
@@ -558,15 +561,13 @@
   </si>
   <si>
     <t>Capacitacion</t>
-  </si>
-  <si>
-    <t>Todos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -597,18 +598,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -619,10 +624,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -660,71 +665,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -752,7 +757,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -775,11 +780,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -788,13 +793,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -804,7 +809,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -813,7 +818,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -822,7 +827,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -830,10 +835,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -904,196 +909,196 @@
   </sheetPr>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="2" width="32.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="30.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1108,17 +1113,15 @@
   </sheetPr>
   <dimension ref="A1:B129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B130" sqref="B130"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="94.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="2" width="94.57642857142856" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1126,7 +1129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1134,7 +1137,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1142,7 +1145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1150,7 +1153,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1158,7 +1161,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1166,7 +1169,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1174,7 +1177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1182,7 +1185,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1190,7 +1193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1198,7 +1201,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1206,7 +1209,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1214,7 +1217,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1222,7 +1225,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -1230,7 +1233,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -1238,7 +1241,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -1246,7 +1249,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -1254,7 +1257,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
@@ -1262,7 +1265,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -1270,7 +1273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
@@ -1278,7 +1281,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -1286,7 +1289,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
@@ -1294,7 +1297,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
@@ -1302,7 +1305,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
@@ -1310,7 +1313,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
@@ -1318,7 +1321,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
@@ -1326,7 +1329,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
@@ -1334,7 +1337,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
@@ -1342,7 +1345,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="1" t="s">
         <v>43</v>
       </c>
@@ -1350,7 +1353,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="1" t="s">
         <v>44</v>
       </c>
@@ -1358,7 +1361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="1" t="s">
         <v>45</v>
       </c>
@@ -1366,7 +1369,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="1" t="s">
         <v>46</v>
       </c>
@@ -1374,7 +1377,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="1" t="s">
         <v>47</v>
       </c>
@@ -1382,7 +1385,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="1" t="s">
         <v>48</v>
       </c>
@@ -1390,7 +1393,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="1" t="s">
         <v>49</v>
       </c>
@@ -1398,7 +1401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="1" t="s">
         <v>50</v>
       </c>
@@ -1406,7 +1409,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="1" t="s">
         <v>51</v>
       </c>
@@ -1414,7 +1417,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="1" t="s">
         <v>52</v>
       </c>
@@ -1422,7 +1425,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="1" t="s">
         <v>54</v>
       </c>
@@ -1430,7 +1433,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="1" t="s">
         <v>55</v>
       </c>
@@ -1438,7 +1441,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="1" t="s">
         <v>57</v>
       </c>
@@ -1446,7 +1449,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="1" t="s">
         <v>58</v>
       </c>
@@ -1454,7 +1457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="1" t="s">
         <v>59</v>
       </c>
@@ -1462,7 +1465,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="1" t="s">
         <v>60</v>
       </c>
@@ -1470,7 +1473,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="1" t="s">
         <v>61</v>
       </c>
@@ -1478,7 +1481,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="1" t="s">
         <v>63</v>
       </c>
@@ -1486,7 +1489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="1" t="s">
         <v>64</v>
       </c>
@@ -1494,7 +1497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="1" t="s">
         <v>65</v>
       </c>
@@ -1502,7 +1505,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="1" t="s">
         <v>67</v>
       </c>
@@ -1510,7 +1513,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="1" t="s">
         <v>68</v>
       </c>
@@ -1518,7 +1521,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="1" t="s">
         <v>69</v>
       </c>
@@ -1526,7 +1529,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="1" t="s">
         <v>71</v>
       </c>
@@ -1534,7 +1537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="1" t="s">
         <v>72</v>
       </c>
@@ -1542,7 +1545,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="1" t="s">
         <v>73</v>
       </c>
@@ -1550,7 +1553,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="1" t="s">
         <v>74</v>
       </c>
@@ -1558,7 +1561,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="1" t="s">
         <v>75</v>
       </c>
@@ -1566,7 +1569,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="1" t="s">
         <v>76</v>
       </c>
@@ -1574,7 +1577,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="1" t="s">
         <v>77</v>
       </c>
@@ -1582,7 +1585,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="1" t="s">
         <v>78</v>
       </c>
@@ -1590,7 +1593,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="1" t="s">
         <v>79</v>
       </c>
@@ -1598,7 +1601,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="1" t="s">
         <v>80</v>
       </c>
@@ -1606,7 +1609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="1" t="s">
         <v>81</v>
       </c>
@@ -1614,7 +1617,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="1" t="s">
         <v>83</v>
       </c>
@@ -1622,7 +1625,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="1" t="s">
         <v>85</v>
       </c>
@@ -1630,7 +1633,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="1" t="s">
         <v>86</v>
       </c>
@@ -1638,7 +1641,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="1" t="s">
         <v>87</v>
       </c>
@@ -1646,7 +1649,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="1" t="s">
         <v>88</v>
       </c>
@@ -1654,7 +1657,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="1" t="s">
         <v>89</v>
       </c>
@@ -1662,7 +1665,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="1" t="s">
         <v>90</v>
       </c>
@@ -1670,7 +1673,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="1" t="s">
         <v>91</v>
       </c>
@@ -1678,7 +1681,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="1" t="s">
         <v>92</v>
       </c>
@@ -1686,7 +1689,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="1" t="s">
         <v>93</v>
       </c>
@@ -1694,7 +1697,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="1" t="s">
         <v>94</v>
       </c>
@@ -1702,7 +1705,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="1" t="s">
         <v>95</v>
       </c>
@@ -1710,7 +1713,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="1" t="s">
         <v>96</v>
       </c>
@@ -1718,7 +1721,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="1" t="s">
         <v>97</v>
       </c>
@@ -1726,7 +1729,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="1" t="s">
         <v>98</v>
       </c>
@@ -1734,7 +1737,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="1" t="s">
         <v>99</v>
       </c>
@@ -1742,7 +1745,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="1" t="s">
         <v>100</v>
       </c>
@@ -1750,7 +1753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="1" t="s">
         <v>101</v>
       </c>
@@ -1758,7 +1761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="1" t="s">
         <v>102</v>
       </c>
@@ -1766,7 +1769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="1" t="s">
         <v>103</v>
       </c>
@@ -1774,7 +1777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="1" t="s">
         <v>104</v>
       </c>
@@ -1782,7 +1785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="1" t="s">
         <v>105</v>
       </c>
@@ -1790,7 +1793,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="1" t="s">
         <v>106</v>
       </c>
@@ -1798,7 +1801,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="1" t="s">
         <v>107</v>
       </c>
@@ -1806,7 +1809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="1" t="s">
         <v>108</v>
       </c>
@@ -1814,7 +1817,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="1" t="s">
         <v>109</v>
       </c>
@@ -1822,7 +1825,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="1" t="s">
         <v>110</v>
       </c>
@@ -1830,7 +1833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="1" t="s">
         <v>111</v>
       </c>
@@ -1838,7 +1841,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="1" t="s">
         <v>112</v>
       </c>
@@ -1846,7 +1849,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="1" t="s">
         <v>113</v>
       </c>
@@ -1854,7 +1857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="1" t="s">
         <v>114</v>
       </c>
@@ -1862,7 +1865,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="1" t="s">
         <v>115</v>
       </c>
@@ -1870,7 +1873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="1" t="s">
         <v>116</v>
       </c>
@@ -1878,7 +1881,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="1" t="s">
         <v>118</v>
       </c>
@@ -1886,7 +1889,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="1" t="s">
         <v>119</v>
       </c>
@@ -1894,7 +1897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="1" t="s">
         <v>120</v>
       </c>
@@ -1902,7 +1905,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="1" t="s">
         <v>121</v>
       </c>
@@ -1910,7 +1913,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="1" t="s">
         <v>122</v>
       </c>
@@ -1918,7 +1921,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="1" t="s">
         <v>123</v>
       </c>
@@ -1926,7 +1929,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="1" t="s">
         <v>124</v>
       </c>
@@ -1934,7 +1937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="1" t="s">
         <v>125</v>
       </c>
@@ -1942,7 +1945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="1" t="s">
         <v>126</v>
       </c>
@@ -1950,7 +1953,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="1" t="s">
         <v>127</v>
       </c>
@@ -1958,7 +1961,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="1" t="s">
         <v>129</v>
       </c>
@@ -1966,7 +1969,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="1" t="s">
         <v>130</v>
       </c>
@@ -1974,7 +1977,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="1" t="s">
         <v>131</v>
       </c>
@@ -1982,7 +1985,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="1" t="s">
         <v>132</v>
       </c>
@@ -1990,7 +1993,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="1" t="s">
         <v>133</v>
       </c>
@@ -1998,7 +2001,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="1" t="s">
         <v>134</v>
       </c>
@@ -2006,7 +2009,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
       <c r="A112" s="1" t="s">
         <v>135</v>
       </c>
@@ -2014,7 +2017,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
       <c r="A113" s="1" t="s">
         <v>136</v>
       </c>
@@ -2022,7 +2025,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
       <c r="A114" s="1" t="s">
         <v>137</v>
       </c>
@@ -2030,7 +2033,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
       <c r="A115" s="1" t="s">
         <v>138</v>
       </c>
@@ -2038,7 +2041,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="1" t="s">
         <v>139</v>
       </c>
@@ -2046,7 +2049,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
       <c r="A117" s="1" t="s">
         <v>140</v>
       </c>
@@ -2054,7 +2057,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
       <c r="A118" s="1" t="s">
         <v>141</v>
       </c>
@@ -2062,7 +2065,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
       <c r="A119" s="1" t="s">
         <v>143</v>
       </c>
@@ -2070,7 +2073,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
       <c r="A120" s="1" t="s">
         <v>145</v>
       </c>
@@ -2078,7 +2081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
       <c r="A121" s="1" t="s">
         <v>146</v>
       </c>
@@ -2086,7 +2089,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
       <c r="A122" s="1" t="s">
         <v>147</v>
       </c>
@@ -2094,7 +2097,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
       <c r="A123" s="1" t="s">
         <v>148</v>
       </c>
@@ -2102,7 +2105,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="1" t="s">
         <v>149</v>
       </c>
@@ -2110,7 +2113,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
       <c r="A125" s="1" t="s">
         <v>150</v>
       </c>
@@ -2118,7 +2121,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="1" t="s">
         <v>151</v>
       </c>
@@ -2126,7 +2129,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
       <c r="A127" s="1" t="s">
         <v>152</v>
       </c>
@@ -2134,7 +2137,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
       <c r="A128" s="1" t="s">
         <v>153</v>
       </c>
@@ -2142,12 +2145,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>180</v>
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
+      <c r="A129" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/Maestros.xlsx
+++ b/Maestros.xlsx
@@ -1107,13 +1107,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1138,7 +1138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>99</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>100</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>101</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>153</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>102</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>103</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>133</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>104</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>158</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>159</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>105</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>106</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>162</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>107</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>163</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>108</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>109</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>110</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>111</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>112</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>113</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>114</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>164</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>115</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>165</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>116</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>166</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>136</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>117</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>10</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>118</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>167</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>12</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>13</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>179</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>137</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>15</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>16</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>149</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>18</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>19</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>20</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>22</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>138</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>23</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>139</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>168</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>180</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>140</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>25</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>150</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>141</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>26</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>142</v>
       </c>
@@ -1602,15 +1602,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>119</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>28</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>120</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>143</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>121</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>122</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>123</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>177</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>124</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>144</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>125</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>151</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>152</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>145</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>146</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>126</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>127</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>170</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>171</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>172</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>173</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>174</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>155</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>128</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>147</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>29</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>30</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>31</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>129</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>176</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>32</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>33</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>34</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>35</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>130</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>90</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>72</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>73</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>74</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>178</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>92</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>94</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>95</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>156</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>76</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>96</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>175</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>77</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>78</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>79</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>80</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>81</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>82</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>83</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>84</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>85</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>86</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>88</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>131</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>37</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>38</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>39</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>40</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>41</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>42</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>43</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>44</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>45</v>
       </c>
@@ -2155,7 +2155,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B129"/>
+  <autoFilter ref="A1:B129">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Ministerio de Relaciones Exteriores"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
